--- a/biology/Botanique/Liparis_kamerunensis/Liparis_kamerunensis.xlsx
+++ b/biology/Botanique/Liparis_kamerunensis/Liparis_kamerunensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liparis kamerunensis Schltr. est une espèce d'Orchidées du genre Liparis, endémique du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On dispose de très peu d'information à son sujet, car l'espèce est surtout connue à travers l'échantillon-type prélevé en 1862 par Gustav Mann au mont Cameroun, à une altitude d'environ 2 000 m[2],[3]. L'identification d'un autre matériel récolté par Thomas en 1992 à Likomba, vers Mann's Spring, reste incertaine[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On dispose de très peu d'information à son sujet, car l'espèce est surtout connue à travers l'échantillon-type prélevé en 1862 par Gustav Mann au mont Cameroun, à une altitude d'environ 2 000 m,. L'identification d'un autre matériel récolté par Thomas en 1992 à Likomba, vers Mann's Spring, reste incertaine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique kamerunensis fait référence au mont Cameroun où le premier spécimen a été découvert.
 </t>
